--- a/인터페이스명세서.xlsx
+++ b/인터페이스명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\홍종표\홍종표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="8910" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="8910" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 목록" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
   <si>
     <t>구분</t>
   </si>
@@ -402,95 +402,6 @@
   </si>
   <si>
     <t>게시글 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-  "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>subject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>" : "게시글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>",
-  "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>" :＂게시글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"
-}</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -602,26 +513,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성공시(201)
-응답 데이터 없음
-실패시(400)
-{ 
-  "status" : "400",
-  "errorMessage" : "게시글 불러오기 실패."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공시(201)
-응답 데이터 없음
-실패시(400)
-{ 
-  "status" : "400",
-  "errorMessage" : "게시글 조회 실패."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>BOARD</t>
     </r>
@@ -648,10 +539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>api/board/get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>BOARD</t>
     </r>
@@ -674,26 +561,6 @@
         <charset val="129"/>
       </rPr>
       <t>4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/board/delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ELETE</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -734,10 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>api/board/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>P</t>
     </r>
@@ -765,6 +628,350 @@
   </si>
   <si>
     <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/board/get/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/board/delete/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "subject" : "게시글 제목 (수정)",
+  "content" :＂게시글 내용 (수정)"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 제목 (수정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 내용 (수정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/board/update{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "subject" : "게시글 제목",
+  "content" : "게시글 내용"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>" : "게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>",
+  "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>" :＂게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시(201)
+[
+  {
+    "regDt": "2023-06-08T12:42:02.033212",
+    "modDt": null,
+    "id": 52,
+    "subject": "제목",
+    "content": "&lt;p&gt;내용&lt;/p&gt;\r\n"
+  },
+  {
+    "regDt": "2023-06-08T12:10:43.758627",
+    "modDt": "2023-06-08T12:48:02.879206",
+    "id": 1,
+    "subject": "게시글 제목 (수정)",
+    "content": "게시글 내용 (수정)"
+  }
+]
+실패시(400)
+{ 
+  "status" : "400",
+  "errorMessage" : "게시글 불러오기 실패."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>egDt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>odDt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ubject</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ontent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시(201)
+{
+  "regDt": "2023-06-08T12:42:02.033212",
+  "modDt": null,
+  "id": 52,
+  "subject": "제목",
+  "content": "&lt;p&gt;내용&lt;/p&gt;\r\n"
+}
+실패시(400)
+{ 
+  "status" : "400",
+  "errorMessage" : "게시글 조회 실패."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,13 +1174,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -997,14 +1213,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,7 +1696,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
@@ -1517,10 +1736,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1540,8 +1759,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1559,8 +1778,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1578,8 +1797,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1597,8 +1816,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1834,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
@@ -1624,7 +1843,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1633,7 +1852,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
@@ -1642,7 +1861,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
@@ -1651,7 +1870,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
@@ -1660,7 +1879,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
@@ -1669,7 +1888,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
@@ -1678,7 +1897,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
@@ -1687,7 +1906,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -1709,8 +1928,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1726,13 +1945,13 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1744,23 +1963,23 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1843,13 +2062,13 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1880,11 +2099,11 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -1895,24 +2114,34 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1930,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1949,41 +2178,41 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2066,13 +2295,13 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2103,11 +2332,11 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -2118,24 +2347,136 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2143,7 +2484,318 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B21:F21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
@@ -2151,11 +2803,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
@@ -2172,41 +2824,41 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2234,39 +2886,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2289,13 +2921,11 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2326,11 +2956,11 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -2341,247 +2971,34 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2601,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2618,41 +3035,41 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2687,7 +3104,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -2705,7 +3122,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -2735,13 +3152,13 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2772,11 +3189,11 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -2787,24 +3204,34 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/인터페이스명세서.xlsx
+++ b/인터페이스명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\홍종표\홍종표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\홍종표_\홍종표_Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="8910" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="8910" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 목록" sheetId="1" r:id="rId1"/>
@@ -771,6 +771,182 @@
       <t>"
 }</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>egDt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>odDt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ubject</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ontent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시(201)
+{
+  "regDt": "2023-06-08T12:42:02.033212",
+  "modDt": null,
+  "id": 52,
+  "subject": "제목",
+  "content": "&lt;p&gt;내용&lt;/p&gt;\r\n"
+}
+실패시(400)
+{ 
+  "status" : "400",
+  "errorMessage" : "게시글 조회 실패."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -794,184 +970,8 @@
 실패시(400)
 { 
   "status" : "400",
-  "errorMessage" : "게시글 불러오기 실패."
+  "errorMessage" : "게시글 목록 조회 실패."
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>egDt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>odDt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ong</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ubject</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ontent</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공시(201)
-{
-  "regDt": "2023-06-08T12:42:02.033212",
-  "modDt": null,
-  "id": 52,
-  "subject": "제목",
-  "content": "&lt;p&gt;내용&lt;/p&gt;\r\n"
-}
-실패시(400)
-{ 
-  "status" : "400",
-  "errorMessage" : "게시글 조회 실패."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1174,6 +1174,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,18 +1224,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,10 +1736,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1759,8 +1759,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1778,8 +1778,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1816,8 +1816,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1834,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
@@ -1843,7 +1843,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1852,7 +1852,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
@@ -1861,7 +1861,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
@@ -1870,7 +1870,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
@@ -1879,7 +1879,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
@@ -1888,7 +1888,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
@@ -1897,7 +1897,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
@@ -1906,7 +1906,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -1945,13 +1945,13 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1963,23 +1963,23 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2062,13 +2062,13 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2135,13 +2135,13 @@
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2178,13 +2178,13 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2196,23 +2196,23 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2295,13 +2295,13 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2360,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -2370,113 +2370,113 @@
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>77</v>
+      <c r="D17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>77</v>
+      <c r="E18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>77</v>
+      <c r="E19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>77</v>
+      <c r="D20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="B21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2496,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2513,13 +2513,13 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2531,23 +2531,23 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2610,11 +2610,11 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2681,113 +2681,113 @@
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>77</v>
+      <c r="D17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>77</v>
+      <c r="E18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>77</v>
+      <c r="E19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>77</v>
+      <c r="D20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="B21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2824,13 +2824,13 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2842,23 +2842,23 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2921,11 +2921,11 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -2992,13 +2992,13 @@
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3035,13 +3035,13 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -3053,23 +3053,23 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3152,13 +3152,13 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -3225,13 +3225,13 @@
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
